--- a/variables and notes.xlsx
+++ b/variables and notes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Wikiepedia</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>http://stackoverflow.com/questions/7572698/python-using-cvxopt-for-quadratic-programming/7574697#7574697</t>
+  </si>
+  <si>
+    <t>https://groups.google.com/forum/#!topic/cvxopt/zkkUVDcEtbc</t>
   </si>
 </sst>
 </file>
@@ -822,25 +825,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72441856"/>
-        <c:axId val="72443392"/>
+        <c:axId val="178873472"/>
+        <c:axId val="209269120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72441856"/>
+        <c:axId val="178873472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72443392"/>
+        <c:crossAx val="209269120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72443392"/>
+        <c:axId val="209269120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,20 +851,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72441856"/>
+        <c:crossAx val="178873472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1187,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1362,12 +1364,18 @@
         <v>37</v>
       </c>
     </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A18" r:id="rId1" location="quadratic-programming"/>
     <hyperlink ref="A19" r:id="rId2"/>
     <hyperlink ref="A20" r:id="rId3"/>
     <hyperlink ref="A21" r:id="rId4" location="7574697"/>
+    <hyperlink ref="A22" r:id="rId5" location="!topic/cvxopt/zkkUVDcEtbc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
